--- a/1. Project Schedule.xlsx
+++ b/1. Project Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>Actor</t>
   </si>
@@ -24,63 +24,6 @@
     <t>Epic</t>
   </si>
   <si>
-    <t>View list</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Quản lý Câu hỏi - Đáp án</t>
-  </si>
-  <si>
-    <t>View list Câu hỏi</t>
-  </si>
-  <si>
-    <t>Search câu hỏi</t>
-  </si>
-  <si>
-    <t>Filter danh sách câu hỏi</t>
-  </si>
-  <si>
-    <t>Sort danh sách câu hỏi</t>
-  </si>
-  <si>
-    <t>Tạo câu hỏi</t>
-  </si>
-  <si>
-    <t>Delete Question</t>
-  </si>
-  <si>
-    <t>Quản lý Category Câu hỏi</t>
-  </si>
-  <si>
-    <t>Update category câu hỏi</t>
-  </si>
-  <si>
-    <t>Delete category câu hỏi</t>
-  </si>
-  <si>
-    <t>Quản lý Đề thi</t>
-  </si>
-  <si>
-    <t>Tạo Đề thi</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách đề thi</t>
-  </si>
-  <si>
-    <t>Sort đề thi</t>
-  </si>
-  <si>
-    <t>Search đề thi</t>
-  </si>
-  <si>
-    <t>Filter đề thi</t>
-  </si>
-  <si>
-    <t>Delete Đề thi</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -90,36 +33,9 @@
     <t>Hiển thị danh sách tài khoản</t>
   </si>
   <si>
-    <t>Filter tài khoản</t>
-  </si>
-  <si>
     <t>Quản lý nhóm Tài Khoản</t>
   </si>
   <si>
-    <t>View List nhóm tài khoản</t>
-  </si>
-  <si>
-    <t>Filter nhóm tài khoản</t>
-  </si>
-  <si>
-    <t>View details nhóm tài khoản</t>
-  </si>
-  <si>
-    <t>Update nhóm tài khoản</t>
-  </si>
-  <si>
-    <t>Update Account trong nhóm tài khoản</t>
-  </si>
-  <si>
-    <t>Add Account</t>
-  </si>
-  <si>
-    <t>Remove Account</t>
-  </si>
-  <si>
-    <t>Delete nhóm tài khoản</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
@@ -147,45 +63,9 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Task owner</t>
-  </si>
-  <si>
-    <t>Nguyễn Huy Anh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Vân Anh</t>
-  </si>
-  <si>
-    <t>Vũ Đình Hào</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Giang</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Anh Ngọc</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Duy</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đông</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
-    <t>Lê Hữu Đoàn</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>UX/UI</t>
-  </si>
-  <si>
-    <t>Filter tài khoản trong nhóm</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -198,143 +78,137 @@
     <t>User System</t>
   </si>
   <si>
-    <t>Learning System</t>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Story </t>
+  </si>
+  <si>
+    <t>Number of Points</t>
+  </si>
+  <si>
+    <t>Not started yet</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Đăng kí</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Thêm giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xóa giỏ hàng</t>
+  </si>
+  <si>
+    <t>Update giỏ hàng</t>
+  </si>
+  <si>
+    <t>Quản lý Thanh Toán</t>
+  </si>
+  <si>
+    <t>Quản lý Giỏ Hàng</t>
+  </si>
+  <si>
+    <t>Quản lý Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách mua</t>
+  </si>
+  <si>
+    <t>Thêm thông tin giao hàng</t>
+  </si>
+  <si>
+    <t>Sửa sản phẩm</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý Hóa Đơn</t>
+  </si>
+  <si>
+    <t>Thêm hóa đơn</t>
+  </si>
+  <si>
+    <t>Sửa hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách hóa đơn</t>
+  </si>
+  <si>
+    <t>Quản lý Nhà Cung Cấp</t>
+  </si>
+  <si>
+    <t>Quản lý Khách Hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>Thêm khách hàng</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thêm tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Xem danh sách</t>
+  </si>
+  <si>
+    <t>Xem chi tiết</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Master schedule (04/29/2021 - 05/13/2021)</t>
+  </si>
+  <si>
+    <t>Sprint 1
+(04/29/2020-11/05/2020)</t>
+  </si>
+  <si>
+    <t>Lê Huyền Mai</t>
+  </si>
+  <si>
+    <t>Task Owner</t>
+  </si>
+  <si>
+    <t>Bùi Duy Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Phương</t>
+  </si>
+  <si>
+    <t>In progess</t>
   </si>
   <si>
     <t>Sale System</t>
   </si>
   <si>
-    <t>VTI Academy Web</t>
-  </si>
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Master schedule (10/24/2020 - 10/24/2021)</t>
-  </si>
-  <si>
-    <t>Sprint 1
-(10/24/2020-11/07/2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Story </t>
-  </si>
-  <si>
-    <t>Number of Points</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Not started yet</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Đăng kí</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Thêm giỏ hàng</t>
-  </si>
-  <si>
-    <t>Xóa giỏ hàng</t>
-  </si>
-  <si>
-    <t>Update giỏ hàng</t>
-  </si>
-  <si>
-    <t>Quản lý Thanh Toán</t>
-  </si>
-  <si>
-    <t>Quản lý Giỏ Hàng</t>
-  </si>
-  <si>
-    <t>Quản lý Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách sản phẩm</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách mua</t>
-  </si>
-  <si>
-    <t>Thêm thông tin giao hàng</t>
-  </si>
-  <si>
-    <t>Sửa sản phẩm</t>
-  </si>
-  <si>
-    <t>Xóa sản phẩm</t>
-  </si>
-  <si>
-    <t>Quản lý Hóa Đơn</t>
-  </si>
-  <si>
-    <t>Thêm hóa đơn</t>
-  </si>
-  <si>
-    <t>Sửa hóa đơn</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách hóa đơn</t>
-  </si>
-  <si>
-    <t>Quản lý Nhà Cung Cấp</t>
-  </si>
-  <si>
-    <t>Quản lý Khách Hàng</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách khách hàng</t>
-  </si>
-  <si>
-    <t>Thêm khách hàng</t>
-  </si>
-  <si>
-    <t>Sửa thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Thêm thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Thêm tài khoản</t>
-  </si>
-  <si>
-    <t>Hiển thị nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Xem danh sách</t>
-  </si>
-  <si>
-    <t>Xem chi tiết</t>
-  </si>
-  <si>
-    <t>Quản lý Đặt Hàng</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách đặt hàng</t>
-  </si>
-  <si>
-    <t>Sửa thông tin đặt hàng</t>
-  </si>
-  <si>
-    <t>Xóa thông tin đặt hàng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm sản phẩm</t>
+    <t>Fresh Shop Web</t>
   </si>
 </sst>
 </file>
@@ -430,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -539,10 +413,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -553,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -564,7 +449,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -578,12 +462,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,99 +475,113 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +678,7 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44128</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44145</c:v>
@@ -877,7 +769,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -1932,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A3" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1951,612 +1843,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="9">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
         <v>44315</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
         <v>44329</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="21">
+        <v>3</v>
+      </c>
+      <c r="H7" s="38">
+        <v>2</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="21">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="38">
+        <v>4</v>
+      </c>
+      <c r="H9" s="38">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="38">
+        <v>3</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="25">
+        <v>3</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="24">
+        <v>3</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="21">
+        <v>2</v>
+      </c>
+      <c r="H14" s="38">
+        <v>2</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="21">
+        <v>3</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="38">
+        <v>4</v>
+      </c>
+      <c r="H16" s="38">
+        <v>2</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
+      <c r="H18" s="38">
+        <v>3</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="21">
+        <v>4</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="21">
+        <v>2</v>
+      </c>
+      <c r="H20" s="38">
+        <v>3</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="25">
+        <v>4</v>
+      </c>
+      <c r="H22" s="38">
+        <v>4</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="25">
+        <v>3</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="25">
+        <v>4</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="26">
+        <v>3</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="25">
+        <v>2</v>
+      </c>
+      <c r="H26" s="38">
+        <v>2</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="25">
+        <v>3</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="38">
+        <v>3</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="21">
+        <v>3</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="21">
+        <v>4</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="24">
-        <v>2</v>
-      </c>
-      <c r="H7" s="54">
-        <v>2</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="50">
-        <v>2</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="51">
-        <v>3</v>
-      </c>
-      <c r="H9" s="54">
-        <v>4</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="51">
-        <v>2</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="51">
-        <v>3</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="52">
-        <v>2</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="51">
-        <v>1</v>
-      </c>
-      <c r="H13" s="54">
-        <v>2</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="51">
-        <v>2</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36">
-        <v>3</v>
-      </c>
-      <c r="H15" s="54">
-        <v>1</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="51">
-        <v>2</v>
-      </c>
-      <c r="H17" s="54">
-        <v>3</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="51">
-        <v>2</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="50">
-        <v>2</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="54">
-        <v>3</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="24">
-        <v>2</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="24">
-        <v>3</v>
-      </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
-      <c r="H23" s="54">
-        <v>1</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="24">
-        <v>2</v>
-      </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="37">
-        <v>3</v>
-      </c>
-      <c r="H25" s="36">
-        <v>1</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="49"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="24">
-        <v>2</v>
-      </c>
-      <c r="H27" s="54">
-        <v>2</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="24">
-        <v>3</v>
-      </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="24">
-        <v>1</v>
-      </c>
-      <c r="H29" s="54">
-        <v>2</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="24">
-        <v>3</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="24">
-        <v>1</v>
-      </c>
-      <c r="H31" s="54">
-        <v>3</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>70</v>
-      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="24">
-        <v>3</v>
-      </c>
+      <c r="A32" s="47"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="24">
-        <v>2</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2566,65 +2396,64 @@
     <row r="55" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I25:I26"/>
+  <mergeCells count="57">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A7:A33"/>
-    <mergeCell ref="B15:B33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2635,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2648,38 +2477,38 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44128</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44315</v>
       </c>
       <c r="C4" s="2">
-        <v>44142</v>
+        <v>44345</v>
       </c>
       <c r="D4">
         <f>C4-B4</f>
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>44145</v>
@@ -2694,7 +2523,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2705,7 +2534,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2716,7 +2545,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2729,7 +2558,7 @@
       <c r="A9" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
+      <c r="B13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2740,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2761,11 +2590,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2776,531 +2605,536 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="15">
-        <v>44128</v>
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14">
+        <v>44315</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="14">
-        <v>44142</v>
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13">
+        <v>44327</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <f xml:space="preserve"> B3 - B2</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <f xml:space="preserve"> COUNT(G10:G30)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <f xml:space="preserve"> SUM(G10:G30)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="17" t="s">
+      <c r="I9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="E19" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
+      <c r="B31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="21">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="21">
-        <v>3</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="21">
-        <v>3</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="21">
-        <v>3</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="22">
-        <v>8</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="22">
-        <v>13</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="22">
-        <v>3</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="22">
-        <v>3</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="22">
-        <v>3</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="22">
-        <v>5</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="22">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="22">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="22">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="22">
-        <v>3</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="22">
-        <v>3</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="22">
-        <v>3</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="22">
-        <v>3</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="22">
-        <v>3</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="22">
-        <v>5</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="22">
-        <v>5</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="22">
-        <v>3</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>70</v>
+      <c r="E31" s="44"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="51">
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B24"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B10:B24"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H16"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1. Project Schedule.xlsx
+++ b/1. Project Schedule.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Master shedule" sheetId="3" r:id="rId2"/>
+    <sheet name="Product backlog" sheetId="5" r:id="rId1"/>
+    <sheet name="Master Schedule" sheetId="8" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="62">
   <si>
     <t>Actor</t>
   </si>
@@ -30,12 +32,6 @@
     <t>Quản lý Tài Khoản</t>
   </si>
   <si>
-    <t>Hiển thị danh sách tài khoản</t>
-  </si>
-  <si>
-    <t>Quản lý nhóm Tài Khoản</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
@@ -57,12 +53,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
@@ -141,15 +131,6 @@
     <t>Quản lý Hóa Đơn</t>
   </si>
   <si>
-    <t>Thêm hóa đơn</t>
-  </si>
-  <si>
-    <t>Sửa hóa đơn</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách hóa đơn</t>
-  </si>
-  <si>
     <t>Quản lý Nhà Cung Cấp</t>
   </si>
   <si>
@@ -159,18 +140,12 @@
     <t>Hiển thị danh sách khách hàng</t>
   </si>
   <si>
-    <t>Thêm khách hàng</t>
-  </si>
-  <si>
     <t>Sửa thông tin nhà cung cấp</t>
   </si>
   <si>
     <t>Thêm thông tin nhà cung cấp</t>
   </si>
   <si>
-    <t>Thêm tài khoản</t>
-  </si>
-  <si>
     <t>Hiển thị nhà cung cấp</t>
   </si>
   <si>
@@ -183,32 +158,55 @@
     <t>Tìm kiếm sản phẩm</t>
   </si>
   <si>
-    <t>Master schedule (04/29/2021 - 05/13/2021)</t>
+    <t>Lê Huyền Mai</t>
+  </si>
+  <si>
+    <t>Task Owner</t>
+  </si>
+  <si>
+    <t>Bùi Duy Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Phương</t>
+  </si>
+  <si>
+    <t>In progess</t>
+  </si>
+  <si>
+    <t>Sale System</t>
+  </si>
+  <si>
+    <t>Fresh Shop Web</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách hóa đơn nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách hóa đơn bán</t>
+  </si>
+  <si>
+    <t>Xem chi tiết các hóa đơn</t>
+  </si>
+  <si>
+    <t>Xem chi tiết các hóa đơn khách hàng mua</t>
   </si>
   <si>
     <t>Sprint 1
-(04/29/2020-11/05/2020)</t>
-  </si>
-  <si>
-    <t>Lê Huyền Mai</t>
-  </si>
-  <si>
-    <t>Task Owner</t>
-  </si>
-  <si>
-    <t>Bùi Duy Đạt</t>
-  </si>
-  <si>
-    <t>Nguyễn Hà Phương</t>
-  </si>
-  <si>
-    <t>In progess</t>
-  </si>
-  <si>
-    <t>Sale System</t>
-  </si>
-  <si>
-    <t>Fresh Shop Web</t>
+(04/29/2020-05/05/2021)</t>
+  </si>
+  <si>
+    <t>Sprint 2
+(05/06/2020-05/11/2021)</t>
+  </si>
+  <si>
+    <t>Sprint 3
+(05/11/2020-05/16/2021)</t>
+  </si>
+  <si>
+    <t>Master schedule (04/29/2021 - 05/16/2021)</t>
   </si>
 </sst>
 </file>
@@ -304,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -412,42 +410,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,28 +428,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -488,88 +438,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -580,9 +448,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,19 +595,58 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Master shedule'!$B$3</c:f>
+              <c:f>'Master Schedule'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -636,77 +656,54 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Master shedule'!$A$4:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Master shedule'!$A$4:$A$5</c:f>
+              <c:f>'Master Schedule'!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Sprint 2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Master shedule'!$B$4:$B$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Master shedule'!$B$4:$B$5</c:f>
+              <c:f>'Master Schedule'!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44145</c:v>
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Master shedule'!$B$6</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:noFill/>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c15:spPr>
-                  <c15:invertIfNegative val="0"/>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A71B-4BC8-9F64-51302970252C}"/>
+              <c16:uniqueId val="{00000000-ACF0-428B-998A-3B53F7C4DAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -715,11 +712,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Master shedule'!$D$3</c:f>
+              <c:f>'Master Schedule'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Duration (days)</c:v>
+                  <c:v>End date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -732,54 +729,47 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Master shedule'!$A$4:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Master shedule'!$A$4:$A$5</c:f>
+              <c:f>'Master Schedule'!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Sprint 2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Master shedule'!$D$4:$D$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Master shedule'!$D$4:$D$5</c:f>
+              <c:f>'Master Schedule'!$C$4:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>m/d;@</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>44321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A71B-4BC8-9F64-51302970252C}"/>
+              <c16:uniqueId val="{00000001-ACF0-428B-998A-3B53F7C4DAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -792,14 +782,15 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="-997027040"/>
-        <c:axId val="-997039008"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="975914320"/>
+        <c:axId val="972549264"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-997027040"/>
+        <c:axId val="975914320"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -809,14 +800,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -840,7 +825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-997039008"/>
+        <c:crossAx val="972549264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,14 +833,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-997039008"/>
+        <c:axId val="972549264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44156"/>
-          <c:min val="44128"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -901,23 +884,50 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-997027040"/>
+        <c:crossAx val="975914320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst>
-          <a:glow>
-            <a:schemeClr val="accent1"/>
-          </a:glow>
-        </a:effectLst>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -996,7 +1006,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1019,17 +1029,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1505,19 +1504,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1731</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177944</xdr:rowOff>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>169141</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1824,555 +1823,519 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="25.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B3" s="6">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8">
-        <v>44329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="B4" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>17</v>
+      <c r="H6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>25</v>
+      <c r="A7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="20">
+        <v>4</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="20">
+        <v>4</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="15">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28">
+        <v>2</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28">
+        <v>4</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="28">
+        <v>2</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20">
+        <v>4</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="20">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="20">
+        <v>3</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="15">
+        <v>4</v>
+      </c>
+      <c r="H20" s="28">
+        <v>2</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="15">
+        <v>3</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="21">
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="15">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="16">
         <v>3</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H23" s="30"/>
+      <c r="I23" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="15">
         <v>2</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="21">
+      <c r="H24" s="28">
         <v>3</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="52" t="s">
+      <c r="I24" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="15">
+        <v>3</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="C26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="28">
+        <v>3</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="20">
+        <v>3</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="60"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="20">
+        <v>4</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="38">
-        <v>4</v>
-      </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="25">
-        <v>3</v>
-      </c>
-      <c r="H11" s="38">
-        <v>3</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="25">
-        <v>3</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="24">
-        <v>3</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="21">
-        <v>2</v>
-      </c>
-      <c r="H14" s="38">
-        <v>2</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="21">
-        <v>3</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="38">
-        <v>4</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
-      <c r="H18" s="38">
-        <v>3</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="21">
-        <v>4</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="21">
-        <v>2</v>
-      </c>
-      <c r="H20" s="38">
-        <v>3</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="21">
-        <v>3</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="25">
-        <v>4</v>
-      </c>
-      <c r="H22" s="38">
-        <v>4</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="25">
-        <v>3</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="25">
-        <v>4</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="26">
-        <v>3</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="25">
-        <v>2</v>
-      </c>
-      <c r="H26" s="38">
-        <v>2</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="25">
-        <v>3</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="21">
-        <v>2</v>
-      </c>
-      <c r="H28" s="38">
-        <v>3</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="21">
-        <v>3</v>
-      </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="21">
-        <v>4</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-    </row>
-    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-    </row>
+      <c r="A30" s="38"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2396,724 +2359,690 @@
     <row r="55" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
+  <mergeCells count="49">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="H18:H19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:H13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:B19"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B4" s="61">
         <v>44315</v>
       </c>
-      <c r="C4" s="2">
-        <v>44345</v>
+      <c r="C4" s="62">
+        <v>44321</v>
       </c>
       <c r="D4">
         <f>C4-B4</f>
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44145</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44156</v>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="62">
+        <v>44322</v>
+      </c>
+      <c r="C5" s="62">
+        <v>44327</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D8" si="0">C5-B5</f>
-        <v>11</v>
+        <f t="shared" ref="D5:D6" si="0">C5-B5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="61">
+        <v>44327</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44332</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="23.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="13">
-        <v>44327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <f xml:space="preserve"> B3 - B2</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
         <f xml:space="preserve"> COUNT(G10:G30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
         <f xml:space="preserve"> SUM(G10:G30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>25</v>
+      <c r="B10" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="36" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="52" t="s">
+      <c r="D27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
+      <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="43" t="s">
+      <c r="C29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="60"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="A33" s="38"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C28"/>
+  <mergeCells count="52">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B24"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="C10:C11"/>
@@ -3121,20 +3050,1140 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H17:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="18">
+        <f xml:space="preserve"> B3 - B2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18">
+        <f xml:space="preserve"> COUNT(G10:G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="18">
+        <f xml:space="preserve"> SUM(G10:G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
+      <c r="B29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="60"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="18">
+        <f xml:space="preserve"> B3 - B2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18">
+        <f xml:space="preserve"> COUNT(G10:G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="18">
+        <f xml:space="preserve"> SUM(G10:G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
+      <c r="B29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="60"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:H31"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
